--- a/CH-137 Table Transformation.xlsx
+++ b/CH-137 Table Transformation.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93DA68D-BFB6-4082-A882-EDC45BF51C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7FD27FE-935D-46A2-9D55-54A3863CA350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
+    <sheet name="Alt1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,8 +36,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="11">
   <si>
     <t>Result</t>
   </si>
@@ -75,7 +98,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,6 +139,14 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Tw Cen MT"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -294,10 +325,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -360,8 +392,15 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -389,8 +428,8 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -405,8 +444,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3076575" y="2381250"/>
-          <a:ext cx="2676525" cy="1647825"/>
+          <a:off x="3063240" y="2221230"/>
+          <a:ext cx="2676525" cy="1756410"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -767,8 +806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -790,7 +829,7 @@
       </c>
       <c r="G1" s="21"/>
       <c r="H1" s="21"/>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="22" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1031,9 +1070,684 @@
     <mergeCell ref="F1:H1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="K1" r:id="rId1" xr:uid="{393484DB-5B40-4744-A6FF-734DC9B2BCD9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E78DF39C-CF08-4402-94F1-81EBE7E7B8BD}">
+  <dimension ref="B1:O35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.8984375" customWidth="1"/>
+    <col min="3" max="4" width="10.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="8" customWidth="1"/>
+    <col min="6" max="8" width="10.5" style="4" customWidth="1"/>
+    <col min="13" max="13" width="9.296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="21"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="K1" s="22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="1"/>
+      <c r="C2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="12">
+        <v>45493</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="12">
+        <v>45493</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="14">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="10">
+        <v>45509</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="10">
+        <v>45509</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="10">
+        <v>45509</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="6">
+        <v>8</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="10">
+        <v>45509</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="6">
+        <v>2</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="10">
+        <v>45517</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="6">
+        <v>2</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="15">
+        <v>45553</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="10">
+        <v>45517</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="15">
+        <v>45553</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="15">
+        <v>45553</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="15">
+        <v>45553</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="10">
+        <v>45566</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C12" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="17">
+        <v>5</v>
+      </c>
+      <c r="F12" s="11">
+        <v>45566</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C13" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C14" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C15" s="10">
+        <v>45566</v>
+      </c>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C16" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C17" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C21" s="12" cm="1">
+        <f t="array" ref="C21:E30">_xlfn.LET(_xlpm.raw,C3:D17,_xlpm.all,_xlfn.HSTACK(
+_xlfn.SCAN(,_xlfn.TAKE(_xlpm.raw,,1),_xlfn.LAMBDA(_xlpm.ac,_xlpm.val,
+IF(LEN(_xlpm.val)=1,_xlpm.ac,_xlpm.val))),
+_xlpm.raw),
+_xlfn._xlws.FILTER(_xlpm.all,_xlfn.CHOOSECOLS(_xlpm.all,3)&gt;0))</f>
+        <v>45493</v>
+      </c>
+      <c r="D21" s="13" t="str">
+        <v>A</v>
+      </c>
+      <c r="E21" s="14">
+        <v>10</v>
+      </c>
+      <c r="H21" s="23" cm="1">
+        <f t="array" ref="H21:H35">_xlfn.SCAN(C3:D17,_xlfn.TAKE(C3:D17,,1),_xlfn.LAMBDA(_xlpm.ac,_xlpm.val,
+IF(LEN(_xlpm.val)=1,_xlpm.ac,_xlpm.val)))</f>
+        <v>45493</v>
+      </c>
+      <c r="I21" cm="1">
+        <f t="array" ref="I21:K35">_xlfn.HSTACK(_xlfn.ANCHORARRAY(H21),C3:D17)</f>
+        <v>45493</v>
+      </c>
+      <c r="J21">
+        <v>45493</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="M21" s="12" cm="1">
+        <f t="array" ref="M21:O30">_xlfn._xlws.FILTER(_xlfn.ANCHORARRAY(I21),_xlfn.CHOOSECOLS(_xlfn.ANCHORARRAY(I21),3)&gt;0)</f>
+        <v>45493</v>
+      </c>
+      <c r="N21" s="13" t="str">
+        <v>A</v>
+      </c>
+      <c r="O21" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C22" s="10">
+        <v>45509</v>
+      </c>
+      <c r="D22" s="5" t="str">
+        <v>C</v>
+      </c>
+      <c r="E22" s="6">
+        <v>8</v>
+      </c>
+      <c r="H22" s="4">
+        <v>45493</v>
+      </c>
+      <c r="I22">
+        <v>45493</v>
+      </c>
+      <c r="J22" t="str">
+        <v>A</v>
+      </c>
+      <c r="K22">
+        <v>10</v>
+      </c>
+      <c r="M22" s="10">
+        <v>45509</v>
+      </c>
+      <c r="N22" s="5" t="str">
+        <v>C</v>
+      </c>
+      <c r="O22" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C23" s="10">
+        <v>45509</v>
+      </c>
+      <c r="D23" s="5" t="str">
+        <v>B</v>
+      </c>
+      <c r="E23" s="6">
+        <v>2</v>
+      </c>
+      <c r="H23" s="4">
+        <v>45509</v>
+      </c>
+      <c r="I23">
+        <v>45509</v>
+      </c>
+      <c r="J23">
+        <v>45509</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="M23" s="10">
+        <v>45509</v>
+      </c>
+      <c r="N23" s="5" t="str">
+        <v>B</v>
+      </c>
+      <c r="O23" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C24" s="10">
+        <v>45509</v>
+      </c>
+      <c r="D24" s="5" t="str">
+        <v>A</v>
+      </c>
+      <c r="E24" s="6">
+        <v>2</v>
+      </c>
+      <c r="H24" s="4">
+        <v>45509</v>
+      </c>
+      <c r="I24">
+        <v>45509</v>
+      </c>
+      <c r="J24" t="str">
+        <v>C</v>
+      </c>
+      <c r="K24">
+        <v>8</v>
+      </c>
+      <c r="M24" s="10">
+        <v>45509</v>
+      </c>
+      <c r="N24" s="5" t="str">
+        <v>A</v>
+      </c>
+      <c r="O24" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C25" s="10">
+        <v>45517</v>
+      </c>
+      <c r="D25" s="5" t="str">
+        <v>B</v>
+      </c>
+      <c r="E25" s="6">
+        <v>1</v>
+      </c>
+      <c r="H25" s="4">
+        <v>45509</v>
+      </c>
+      <c r="I25">
+        <v>45509</v>
+      </c>
+      <c r="J25" t="str">
+        <v>B</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="M25" s="10">
+        <v>45517</v>
+      </c>
+      <c r="N25" s="5" t="str">
+        <v>B</v>
+      </c>
+      <c r="O25" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C26" s="15">
+        <v>45553</v>
+      </c>
+      <c r="D26" s="16" t="str">
+        <v>A</v>
+      </c>
+      <c r="E26" s="17">
+        <v>5</v>
+      </c>
+      <c r="H26" s="4">
+        <v>45509</v>
+      </c>
+      <c r="I26">
+        <v>45509</v>
+      </c>
+      <c r="J26" t="str">
+        <v>A</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="M26" s="15">
+        <v>45553</v>
+      </c>
+      <c r="N26" s="16" t="str">
+        <v>A</v>
+      </c>
+      <c r="O26" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C27" s="15">
+        <v>45553</v>
+      </c>
+      <c r="D27" s="16" t="str">
+        <v>B</v>
+      </c>
+      <c r="E27" s="17">
+        <v>4</v>
+      </c>
+      <c r="H27" s="4">
+        <v>45517</v>
+      </c>
+      <c r="I27">
+        <v>45517</v>
+      </c>
+      <c r="J27">
+        <v>45517</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="M27" s="15">
+        <v>45553</v>
+      </c>
+      <c r="N27" s="16" t="str">
+        <v>B</v>
+      </c>
+      <c r="O27" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C28" s="15">
+        <v>45553</v>
+      </c>
+      <c r="D28" s="16" t="str">
+        <v>C</v>
+      </c>
+      <c r="E28" s="17">
+        <v>3</v>
+      </c>
+      <c r="H28" s="4">
+        <v>45517</v>
+      </c>
+      <c r="I28">
+        <v>45517</v>
+      </c>
+      <c r="J28" t="str">
+        <v>B</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="M28" s="15">
+        <v>45553</v>
+      </c>
+      <c r="N28" s="16" t="str">
+        <v>C</v>
+      </c>
+      <c r="O28" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C29" s="10">
+        <v>45566</v>
+      </c>
+      <c r="D29" s="5" t="str">
+        <v>A</v>
+      </c>
+      <c r="E29" s="6">
+        <v>1</v>
+      </c>
+      <c r="H29" s="4">
+        <v>45553</v>
+      </c>
+      <c r="I29">
+        <v>45553</v>
+      </c>
+      <c r="J29">
+        <v>45553</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="M29" s="10">
+        <v>45566</v>
+      </c>
+      <c r="N29" s="5" t="str">
+        <v>A</v>
+      </c>
+      <c r="O29" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C30" s="11">
+        <v>45566</v>
+      </c>
+      <c r="D30" s="7" t="str">
+        <v>B</v>
+      </c>
+      <c r="E30" s="9">
+        <v>2</v>
+      </c>
+      <c r="H30" s="4">
+        <v>45553</v>
+      </c>
+      <c r="I30">
+        <v>45553</v>
+      </c>
+      <c r="J30" t="str">
+        <v>A</v>
+      </c>
+      <c r="K30">
+        <v>5</v>
+      </c>
+      <c r="M30" s="11">
+        <v>45566</v>
+      </c>
+      <c r="N30" s="7" t="str">
+        <v>B</v>
+      </c>
+      <c r="O30" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="H31" s="4">
+        <v>45553</v>
+      </c>
+      <c r="I31">
+        <v>45553</v>
+      </c>
+      <c r="J31" t="str">
+        <v>B</v>
+      </c>
+      <c r="K31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="H32" s="4">
+        <v>45553</v>
+      </c>
+      <c r="I32">
+        <v>45553</v>
+      </c>
+      <c r="J32" t="str">
+        <v>C</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H33" s="4">
+        <v>45566</v>
+      </c>
+      <c r="I33">
+        <v>45566</v>
+      </c>
+      <c r="J33">
+        <v>45566</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H34" s="4">
+        <v>45566</v>
+      </c>
+      <c r="I34">
+        <v>45566</v>
+      </c>
+      <c r="J34" t="str">
+        <v>A</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H35" s="4">
+        <v>45566</v>
+      </c>
+      <c r="I35">
+        <v>45566</v>
+      </c>
+      <c r="J35" t="str">
+        <v>B</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="F1:H1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="K1" r:id="rId1" xr:uid="{40D04F18-711C-48CA-8473-BB2DC5F4D42D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/CH-137 Table Transformation.xlsx
+++ b/CH-137 Table Transformation.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7FD27FE-935D-46A2-9D55-54A3863CA350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D4659C-A2FD-4370-9697-0D524CC33AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
     <sheet name="Alt1" sheetId="2" r:id="rId2"/>
+    <sheet name="Alt2" sheetId="3" r:id="rId3"/>
+    <sheet name="EDA" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="11">
   <si>
     <t>Result</t>
   </si>
@@ -98,7 +100,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +150,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -329,7 +337,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -389,15 +397,16 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -819,17 +828,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="21"/>
+      <c r="D1" s="23"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="K1" s="22" t="s">
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="K1" s="21" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1083,7 +1092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E78DF39C-CF08-4402-94F1-81EBE7E7B8BD}">
   <dimension ref="B1:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -1097,17 +1106,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="21"/>
+      <c r="D1" s="23"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="K1" s="22" t="s">
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="K1" s="21" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1354,7 +1363,7 @@
       <c r="E21" s="14">
         <v>10</v>
       </c>
-      <c r="H21" s="23" cm="1">
+      <c r="H21" s="22" cm="1">
         <f t="array" ref="H21:H35">_xlfn.SCAN(C3:D17,_xlfn.TAKE(C3:D17,,1),_xlfn.LAMBDA(_xlpm.ac,_xlpm.val,
 IF(LEN(_xlpm.val)=1,_xlpm.ac,_xlpm.val)))</f>
         <v>45493</v>
@@ -1745,6 +1754,873 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K1" r:id="rId1" xr:uid="{40D04F18-711C-48CA-8473-BB2DC5F4D42D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78A622A4-9693-4B76-AEE2-520FC6385002}">
+  <dimension ref="B1:K26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.8984375" customWidth="1"/>
+    <col min="3" max="4" width="10.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="8" customWidth="1"/>
+    <col min="6" max="8" width="10.5" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="23"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="K1" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="1"/>
+      <c r="C2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="12">
+        <v>45493</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="12">
+        <v>45493</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="14">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="10">
+        <v>45509</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="10">
+        <v>45509</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="10">
+        <v>45509</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="6">
+        <v>8</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="10">
+        <v>45509</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="6">
+        <v>2</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="10">
+        <v>45517</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="6">
+        <v>2</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="15">
+        <v>45553</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="10">
+        <v>45517</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="15">
+        <v>45553</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="15">
+        <v>45553</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="15">
+        <v>45553</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="10">
+        <v>45566</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C12" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="17">
+        <v>5</v>
+      </c>
+      <c r="F12" s="11">
+        <v>45566</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C13" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C14" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C15" s="10">
+        <v>45566</v>
+      </c>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C16" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C17" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="9">
+        <v>2</v>
+      </c>
+      <c r="F17" s="4" cm="1">
+        <f t="array" ref="F17:H26">_xlfn._xlws.FILTER(_xlfn.HSTACK(_xlfn.SCAN(,C3:C17,_xlfn.LAMBDA(_xlpm.a,_xlpm.b,IF(N(_xlpm.b),_xlpm.b,_xlpm.a))),C3:D17),D3:D17)</f>
+        <v>45493</v>
+      </c>
+      <c r="G17" s="4" t="str">
+        <v>A</v>
+      </c>
+      <c r="H17" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="4">
+        <v>45509</v>
+      </c>
+      <c r="G18" s="4" t="str">
+        <v>C</v>
+      </c>
+      <c r="H18" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="4">
+        <v>45509</v>
+      </c>
+      <c r="G19" s="4" t="str">
+        <v>B</v>
+      </c>
+      <c r="H19" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="4">
+        <v>45509</v>
+      </c>
+      <c r="G20" s="4" t="str">
+        <v>A</v>
+      </c>
+      <c r="H20" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="4">
+        <v>45517</v>
+      </c>
+      <c r="G21" s="4" t="str">
+        <v>B</v>
+      </c>
+      <c r="H21" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F22" s="4">
+        <v>45553</v>
+      </c>
+      <c r="G22" s="4" t="str">
+        <v>A</v>
+      </c>
+      <c r="H22" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="4">
+        <v>45553</v>
+      </c>
+      <c r="G23" s="4" t="str">
+        <v>B</v>
+      </c>
+      <c r="H23" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F24" s="4">
+        <v>45553</v>
+      </c>
+      <c r="G24" s="4" t="str">
+        <v>C</v>
+      </c>
+      <c r="H24" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F25" s="4">
+        <v>45566</v>
+      </c>
+      <c r="G25" s="4" t="str">
+        <v>A</v>
+      </c>
+      <c r="H25" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F26" s="4">
+        <v>45566</v>
+      </c>
+      <c r="G26" s="4" t="str">
+        <v>B</v>
+      </c>
+      <c r="H26" s="4">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="F1:H1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="K1" r:id="rId1" xr:uid="{90C3A56E-3A2F-40F4-B389-8DCAFB398125}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FE68A10-5B07-4E70-99C9-BDFD2AD4A876}">
+  <dimension ref="B1:Q26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.8984375" customWidth="1"/>
+    <col min="3" max="4" width="10.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="8" customWidth="1"/>
+    <col min="6" max="8" width="10.5" style="4" customWidth="1"/>
+    <col min="11" max="11" width="10.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="23"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="K1" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="1"/>
+      <c r="C2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="12">
+        <v>45493</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="12">
+        <v>45493</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="14">
+        <v>10</v>
+      </c>
+      <c r="K3" s="1">
+        <f>N(C3)</f>
+        <v>45493</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="14">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="10">
+        <v>45509</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="10">
+        <v>45509</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="10">
+        <v>45509</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="6">
+        <v>8</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="10">
+        <v>45509</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="6">
+        <v>2</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="10">
+        <v>45517</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="6">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1">
+        <f>N(1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="6">
+        <v>2</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="15">
+        <v>45553</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="17">
+        <v>5</v>
+      </c>
+      <c r="M8" s="1">
+        <f>N("A")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="10">
+        <v>45517</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="15">
+        <v>45553</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="15">
+        <v>45553</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="15">
+        <v>45553</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="10">
+        <v>45566</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C12" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="17">
+        <v>5</v>
+      </c>
+      <c r="F12" s="11">
+        <v>45566</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C13" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C14" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="17">
+        <v>3</v>
+      </c>
+      <c r="K14" s="24"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C15" s="10">
+        <v>45566</v>
+      </c>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C16" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C17" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="9">
+        <v>2</v>
+      </c>
+      <c r="K17" s="12" cm="1">
+        <f t="array" ref="K17:M26">_xlfn.LET(_xlpm.fc,_xlfn.SCAN(0,C3:C17,_xlfn.LAMBDA(_xlpm.a,_xlpm.v,IF(N(_xlpm.v),_xlpm.v,_xlpm.a))),_xlpm.d,_xlfn.HSTACK(_xlpm.fc,C3:C17,D3:D17),_xlfn._xlws.FILTER(_xlpm.d,NOT(ISBLANK(_xlfn.TAKE(_xlpm.d,,-1)))))</f>
+        <v>45493</v>
+      </c>
+      <c r="L17" s="13" t="str">
+        <v>A</v>
+      </c>
+      <c r="M17" s="14">
+        <v>10</v>
+      </c>
+      <c r="O17" t="b" cm="1">
+        <f t="array" ref="O17:Q26">_xlfn.ANCHORARRAY(K17)=F3:H12</f>
+        <v>1</v>
+      </c>
+      <c r="P17" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="K18" s="10">
+        <v>45509</v>
+      </c>
+      <c r="L18" s="5" t="str">
+        <v>C</v>
+      </c>
+      <c r="M18" s="6">
+        <v>8</v>
+      </c>
+      <c r="O18" t="b">
+        <v>1</v>
+      </c>
+      <c r="P18" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="K19" s="10">
+        <v>45509</v>
+      </c>
+      <c r="L19" s="5" t="str">
+        <v>B</v>
+      </c>
+      <c r="M19" s="6">
+        <v>2</v>
+      </c>
+      <c r="O19" t="b">
+        <v>1</v>
+      </c>
+      <c r="P19" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="K20" s="10">
+        <v>45509</v>
+      </c>
+      <c r="L20" s="5" t="str">
+        <v>A</v>
+      </c>
+      <c r="M20" s="6">
+        <v>2</v>
+      </c>
+      <c r="O20" t="b">
+        <v>1</v>
+      </c>
+      <c r="P20" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="K21" s="10">
+        <v>45517</v>
+      </c>
+      <c r="L21" s="5" t="str">
+        <v>B</v>
+      </c>
+      <c r="M21" s="6">
+        <v>1</v>
+      </c>
+      <c r="O21" t="b">
+        <v>1</v>
+      </c>
+      <c r="P21" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="K22" s="15">
+        <v>45553</v>
+      </c>
+      <c r="L22" s="16" t="str">
+        <v>A</v>
+      </c>
+      <c r="M22" s="17">
+        <v>5</v>
+      </c>
+      <c r="O22" t="b">
+        <v>1</v>
+      </c>
+      <c r="P22" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="K23" s="15">
+        <v>45553</v>
+      </c>
+      <c r="L23" s="16" t="str">
+        <v>B</v>
+      </c>
+      <c r="M23" s="17">
+        <v>4</v>
+      </c>
+      <c r="O23" t="b">
+        <v>1</v>
+      </c>
+      <c r="P23" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="K24" s="15">
+        <v>45553</v>
+      </c>
+      <c r="L24" s="16" t="str">
+        <v>C</v>
+      </c>
+      <c r="M24" s="17">
+        <v>3</v>
+      </c>
+      <c r="O24" t="b">
+        <v>1</v>
+      </c>
+      <c r="P24" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="K25" s="10">
+        <v>45566</v>
+      </c>
+      <c r="L25" s="5" t="str">
+        <v>A</v>
+      </c>
+      <c r="M25" s="6">
+        <v>1</v>
+      </c>
+      <c r="O25" t="b">
+        <v>1</v>
+      </c>
+      <c r="P25" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="K26" s="11">
+        <v>45566</v>
+      </c>
+      <c r="L26" s="7" t="str">
+        <v>B</v>
+      </c>
+      <c r="M26" s="9">
+        <v>2</v>
+      </c>
+      <c r="O26" t="b">
+        <v>1</v>
+      </c>
+      <c r="P26" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="F1:H1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="K1" r:id="rId1" xr:uid="{4766CF92-EF17-48F3-BAC3-968BE6357381}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/CH-137 Table Transformation.xlsx
+++ b/CH-137 Table Transformation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D4659C-A2FD-4370-9697-0D524CC33AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99BE9D27-F55D-4C2A-9763-A5E2B3FF21D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="12">
   <si>
     <t>Result</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>https://www.linkedin.com/feed/update/urn:li:activity:7258221270465474561/</t>
+  </si>
+  <si>
+    <t>Nice use of scan.</t>
   </si>
 </sst>
 </file>
@@ -403,10 +406,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -828,16 +831,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="23"/>
+      <c r="D1" s="24"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
       <c r="K1" s="21" t="s">
         <v>10</v>
       </c>
@@ -1106,16 +1109,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="23"/>
+      <c r="D1" s="24"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
       <c r="K1" s="21" t="s">
         <v>10</v>
       </c>
@@ -1777,16 +1780,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="23"/>
+      <c r="D1" s="24"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
       <c r="K1" s="21" t="s">
         <v>10</v>
       </c>
@@ -2145,8 +2148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FE68A10-5B07-4E70-99C9-BDFD2AD4A876}">
   <dimension ref="B1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2159,16 +2162,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="23"/>
+      <c r="D1" s="24"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
       <c r="K1" s="21" t="s">
         <v>10</v>
       </c>
@@ -2374,6 +2377,9 @@
       <c r="H12" s="9">
         <v>2</v>
       </c>
+      <c r="K12" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C13" s="15" t="s">
@@ -2390,7 +2396,7 @@
       <c r="D14" s="17">
         <v>3</v>
       </c>
-      <c r="K14" s="24"/>
+      <c r="K14" s="23"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C15" s="10">
